--- a/src/predicciones/xgboost/producto_197.xlsx
+++ b/src/predicciones/xgboost/producto_197.xlsx
@@ -14,18 +14,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>valor_real</t>
   </si>
   <si>
     <t>valor_prediccion</t>
   </si>
+  <si>
+    <t>Fecha</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -78,9 +84,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -377,1073 +386,1472 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B133"/>
+  <dimension ref="A1:C133"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:3">
       <c r="A1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2">
-        <v>2</v>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>44931</v>
       </c>
       <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
         <v>1.060959935188293</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
-      <c r="A3">
-        <v>1</v>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>44935</v>
       </c>
       <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3">
         <v>1.666988730430603</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
-      <c r="A4">
-        <v>1</v>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>44938</v>
       </c>
       <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
         <v>1.064638733863831</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
-      <c r="A5">
-        <v>1</v>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>44940</v>
       </c>
       <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
         <v>1.316394686698914</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
-      <c r="A6">
-        <v>1</v>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>44942</v>
       </c>
       <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
         <v>1.083833813667297</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
-      <c r="A7">
-        <v>2</v>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>44943</v>
       </c>
       <c r="B7">
+        <v>2</v>
+      </c>
+      <c r="C7">
         <v>1.13303279876709</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
-      <c r="A8">
-        <v>2</v>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>44952</v>
       </c>
       <c r="B8">
+        <v>2</v>
+      </c>
+      <c r="C8">
         <v>1.009492993354797</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
-      <c r="A9">
-        <v>1</v>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>44955</v>
       </c>
       <c r="B9">
+        <v>1</v>
+      </c>
+      <c r="C9">
         <v>1.444738507270813</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
-      <c r="A10">
-        <v>2</v>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>44958</v>
       </c>
       <c r="B10">
+        <v>2</v>
+      </c>
+      <c r="C10">
         <v>2.03446888923645</v>
       </c>
     </row>
-    <row r="11" spans="1:2">
-      <c r="A11">
-        <v>1</v>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>44961</v>
       </c>
       <c r="B11">
+        <v>1</v>
+      </c>
+      <c r="C11">
         <v>1.067773342132568</v>
       </c>
     </row>
-    <row r="12" spans="1:2">
-      <c r="A12">
-        <v>2</v>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>44963</v>
       </c>
       <c r="B12">
+        <v>2</v>
+      </c>
+      <c r="C12">
         <v>1.015334844589233</v>
       </c>
     </row>
-    <row r="13" spans="1:2">
-      <c r="A13">
-        <v>1</v>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2">
+        <v>44964</v>
       </c>
       <c r="B13">
+        <v>1</v>
+      </c>
+      <c r="C13">
         <v>1.037026166915894</v>
       </c>
     </row>
-    <row r="14" spans="1:2">
-      <c r="A14">
-        <v>1</v>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2">
+        <v>44968</v>
       </c>
       <c r="B14">
+        <v>1</v>
+      </c>
+      <c r="C14">
         <v>0.9401206374168396</v>
       </c>
     </row>
-    <row r="15" spans="1:2">
-      <c r="A15">
-        <v>1</v>
+    <row r="15" spans="1:3">
+      <c r="A15" s="2">
+        <v>44969</v>
       </c>
       <c r="B15">
+        <v>1</v>
+      </c>
+      <c r="C15">
         <v>1.067902088165283</v>
       </c>
     </row>
-    <row r="16" spans="1:2">
-      <c r="A16">
-        <v>1</v>
+    <row r="16" spans="1:3">
+      <c r="A16" s="2">
+        <v>44970</v>
       </c>
       <c r="B16">
+        <v>1</v>
+      </c>
+      <c r="C16">
         <v>1.312145590782166</v>
       </c>
     </row>
-    <row r="17" spans="1:2">
-      <c r="A17">
-        <v>1</v>
+    <row r="17" spans="1:3">
+      <c r="A17" s="2">
+        <v>44973</v>
       </c>
       <c r="B17">
+        <v>1</v>
+      </c>
+      <c r="C17">
         <v>1.016617774963379</v>
       </c>
     </row>
-    <row r="18" spans="1:2">
-      <c r="A18">
-        <v>2</v>
+    <row r="18" spans="1:3">
+      <c r="A18" s="2">
+        <v>44975</v>
       </c>
       <c r="B18">
+        <v>2</v>
+      </c>
+      <c r="C18">
         <v>0.9864037036895752</v>
       </c>
     </row>
-    <row r="19" spans="1:2">
-      <c r="A19">
-        <v>1</v>
+    <row r="19" spans="1:3">
+      <c r="A19" s="2">
+        <v>44977</v>
       </c>
       <c r="B19">
+        <v>1</v>
+      </c>
+      <c r="C19">
         <v>1.345836400985718</v>
       </c>
     </row>
-    <row r="20" spans="1:2">
-      <c r="A20">
-        <v>1</v>
+    <row r="20" spans="1:3">
+      <c r="A20" s="2">
+        <v>44978</v>
       </c>
       <c r="B20">
+        <v>1</v>
+      </c>
+      <c r="C20">
         <v>1.696642398834229</v>
       </c>
     </row>
-    <row r="21" spans="1:2">
-      <c r="A21">
-        <v>1</v>
+    <row r="21" spans="1:3">
+      <c r="A21" s="2">
+        <v>44981</v>
       </c>
       <c r="B21">
+        <v>1</v>
+      </c>
+      <c r="C21">
         <v>1.086108565330505</v>
       </c>
     </row>
-    <row r="22" spans="1:2">
-      <c r="A22">
-        <v>2</v>
+    <row r="22" spans="1:3">
+      <c r="A22" s="2">
+        <v>44985</v>
       </c>
       <c r="B22">
+        <v>2</v>
+      </c>
+      <c r="C22">
         <v>1.170110702514648</v>
       </c>
     </row>
-    <row r="23" spans="1:2">
-      <c r="A23">
-        <v>2</v>
+    <row r="23" spans="1:3">
+      <c r="A23" s="2">
+        <v>44989</v>
       </c>
       <c r="B23">
+        <v>2</v>
+      </c>
+      <c r="C23">
         <v>1.065104246139526</v>
       </c>
     </row>
-    <row r="24" spans="1:2">
-      <c r="A24">
-        <v>1</v>
+    <row r="24" spans="1:3">
+      <c r="A24" s="2">
+        <v>45003</v>
       </c>
       <c r="B24">
+        <v>1</v>
+      </c>
+      <c r="C24">
         <v>1.204372882843018</v>
       </c>
     </row>
-    <row r="25" spans="1:2">
-      <c r="A25">
-        <v>1</v>
+    <row r="25" spans="1:3">
+      <c r="A25" s="2">
+        <v>45004</v>
       </c>
       <c r="B25">
+        <v>1</v>
+      </c>
+      <c r="C25">
         <v>1.657346367835999</v>
       </c>
     </row>
-    <row r="26" spans="1:2">
-      <c r="A26">
-        <v>2</v>
+    <row r="26" spans="1:3">
+      <c r="A26" s="2">
+        <v>45005</v>
       </c>
       <c r="B26">
+        <v>2</v>
+      </c>
+      <c r="C26">
         <v>1.617018461227417</v>
       </c>
     </row>
-    <row r="27" spans="1:2">
-      <c r="A27">
-        <v>1</v>
+    <row r="27" spans="1:3">
+      <c r="A27" s="2">
+        <v>45009</v>
       </c>
       <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
         <v>1.254566788673401</v>
       </c>
     </row>
-    <row r="28" spans="1:2">
-      <c r="A28">
-        <v>1</v>
+    <row r="28" spans="1:3">
+      <c r="A28" s="2">
+        <v>45013</v>
       </c>
       <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>1.035876035690308</v>
       </c>
     </row>
-    <row r="29" spans="1:2">
-      <c r="A29">
-        <v>2</v>
+    <row r="29" spans="1:3">
+      <c r="A29" s="2">
+        <v>45014</v>
       </c>
       <c r="B29">
+        <v>2</v>
+      </c>
+      <c r="C29">
         <v>1.199567556381226</v>
       </c>
     </row>
-    <row r="30" spans="1:2">
-      <c r="A30">
-        <v>1</v>
+    <row r="30" spans="1:3">
+      <c r="A30" s="2">
+        <v>45016</v>
       </c>
       <c r="B30">
+        <v>1</v>
+      </c>
+      <c r="C30">
         <v>1.359212636947632</v>
       </c>
     </row>
-    <row r="31" spans="1:2">
-      <c r="A31">
-        <v>1</v>
+    <row r="31" spans="1:3">
+      <c r="A31" s="2">
+        <v>45025</v>
       </c>
       <c r="B31">
+        <v>1</v>
+      </c>
+      <c r="C31">
         <v>1.681992769241333</v>
       </c>
     </row>
-    <row r="32" spans="1:2">
-      <c r="A32">
-        <v>1</v>
+    <row r="32" spans="1:3">
+      <c r="A32" s="2">
+        <v>45027</v>
       </c>
       <c r="B32">
+        <v>1</v>
+      </c>
+      <c r="C32">
         <v>1.139197945594788</v>
       </c>
     </row>
-    <row r="33" spans="1:2">
-      <c r="A33">
-        <v>2</v>
+    <row r="33" spans="1:3">
+      <c r="A33" s="2">
+        <v>45031</v>
       </c>
       <c r="B33">
+        <v>2</v>
+      </c>
+      <c r="C33">
         <v>0.9987509846687317</v>
       </c>
     </row>
-    <row r="34" spans="1:2">
-      <c r="A34">
-        <v>1</v>
+    <row r="34" spans="1:3">
+      <c r="A34" s="2">
+        <v>45032</v>
       </c>
       <c r="B34">
+        <v>1</v>
+      </c>
+      <c r="C34">
         <v>1.379985690116882</v>
       </c>
     </row>
-    <row r="35" spans="1:2">
-      <c r="A35">
-        <v>2</v>
+    <row r="35" spans="1:3">
+      <c r="A35" s="2">
+        <v>45036</v>
       </c>
       <c r="B35">
+        <v>2</v>
+      </c>
+      <c r="C35">
         <v>1.090888381004333</v>
       </c>
     </row>
-    <row r="36" spans="1:2">
-      <c r="A36">
-        <v>1</v>
+    <row r="36" spans="1:3">
+      <c r="A36" s="2">
+        <v>45043</v>
       </c>
       <c r="B36">
+        <v>1</v>
+      </c>
+      <c r="C36">
         <v>1.292508840560913</v>
       </c>
     </row>
-    <row r="37" spans="1:2">
-      <c r="A37">
-        <v>1</v>
+    <row r="37" spans="1:3">
+      <c r="A37" s="2">
+        <v>45048</v>
       </c>
       <c r="B37">
+        <v>1</v>
+      </c>
+      <c r="C37">
         <v>1.457717299461365</v>
       </c>
     </row>
-    <row r="38" spans="1:2">
-      <c r="A38">
-        <v>1</v>
+    <row r="38" spans="1:3">
+      <c r="A38" s="2">
+        <v>45055</v>
       </c>
       <c r="B38">
+        <v>1</v>
+      </c>
+      <c r="C38">
         <v>1.517999529838562</v>
       </c>
     </row>
-    <row r="39" spans="1:2">
-      <c r="A39">
-        <v>1</v>
+    <row r="39" spans="1:3">
+      <c r="A39" s="2">
+        <v>45060</v>
       </c>
       <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="C39">
         <v>1.572928190231323</v>
       </c>
     </row>
-    <row r="40" spans="1:2">
-      <c r="A40">
-        <v>1</v>
+    <row r="40" spans="1:3">
+      <c r="A40" s="2">
+        <v>45062</v>
       </c>
       <c r="B40">
+        <v>1</v>
+      </c>
+      <c r="C40">
         <v>1.447114586830139</v>
       </c>
     </row>
-    <row r="41" spans="1:2">
-      <c r="A41">
-        <v>1</v>
+    <row r="41" spans="1:3">
+      <c r="A41" s="2">
+        <v>45069</v>
       </c>
       <c r="B41">
+        <v>1</v>
+      </c>
+      <c r="C41">
         <v>1.571932554244995</v>
       </c>
     </row>
-    <row r="42" spans="1:2">
-      <c r="A42">
-        <v>2</v>
+    <row r="42" spans="1:3">
+      <c r="A42" s="2">
+        <v>45071</v>
       </c>
       <c r="B42">
+        <v>2</v>
+      </c>
+      <c r="C42">
         <v>1.563723087310791</v>
       </c>
     </row>
-    <row r="43" spans="1:2">
-      <c r="A43">
-        <v>1</v>
+    <row r="43" spans="1:3">
+      <c r="A43" s="2">
+        <v>45072</v>
       </c>
       <c r="B43">
+        <v>1</v>
+      </c>
+      <c r="C43">
         <v>1.687606453895569</v>
       </c>
     </row>
-    <row r="44" spans="1:2">
-      <c r="A44">
-        <v>1</v>
+    <row r="44" spans="1:3">
+      <c r="A44" s="2">
+        <v>45077</v>
       </c>
       <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
         <v>1.786516308784485</v>
       </c>
     </row>
-    <row r="45" spans="1:2">
-      <c r="A45">
-        <v>1</v>
+    <row r="45" spans="1:3">
+      <c r="A45" s="2">
+        <v>45080</v>
       </c>
       <c r="B45">
+        <v>1</v>
+      </c>
+      <c r="C45">
         <v>1.466151118278503</v>
       </c>
     </row>
-    <row r="46" spans="1:2">
-      <c r="A46">
-        <v>1</v>
+    <row r="46" spans="1:3">
+      <c r="A46" s="2">
+        <v>45083</v>
       </c>
       <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
         <v>1.271108984947205</v>
       </c>
     </row>
-    <row r="47" spans="1:2">
-      <c r="A47">
-        <v>1</v>
+    <row r="47" spans="1:3">
+      <c r="A47" s="2">
+        <v>45085</v>
       </c>
       <c r="B47">
+        <v>1</v>
+      </c>
+      <c r="C47">
         <v>1.425202965736389</v>
       </c>
     </row>
-    <row r="48" spans="1:2">
-      <c r="A48">
-        <v>1</v>
+    <row r="48" spans="1:3">
+      <c r="A48" s="2">
+        <v>45086</v>
       </c>
       <c r="B48">
+        <v>1</v>
+      </c>
+      <c r="C48">
         <v>1.082376956939697</v>
       </c>
     </row>
-    <row r="49" spans="1:2">
-      <c r="A49">
-        <v>2</v>
+    <row r="49" spans="1:3">
+      <c r="A49" s="2">
+        <v>45088</v>
       </c>
       <c r="B49">
+        <v>2</v>
+      </c>
+      <c r="C49">
         <v>0.9455851912498474</v>
       </c>
     </row>
-    <row r="50" spans="1:2">
-      <c r="A50">
-        <v>1</v>
+    <row r="50" spans="1:3">
+      <c r="A50" s="2">
+        <v>45092</v>
       </c>
       <c r="B50">
+        <v>1</v>
+      </c>
+      <c r="C50">
         <v>1.091325521469116</v>
       </c>
     </row>
-    <row r="51" spans="1:2">
-      <c r="A51">
-        <v>1</v>
+    <row r="51" spans="1:3">
+      <c r="A51" s="2">
+        <v>45095</v>
       </c>
       <c r="B51">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>1.408769845962524</v>
       </c>
     </row>
-    <row r="52" spans="1:2">
-      <c r="A52">
-        <v>2</v>
+    <row r="52" spans="1:3">
+      <c r="A52" s="2">
+        <v>45096</v>
       </c>
       <c r="B52">
+        <v>2</v>
+      </c>
+      <c r="C52">
         <v>1.893862009048462</v>
       </c>
     </row>
-    <row r="53" spans="1:2">
-      <c r="A53">
-        <v>1</v>
+    <row r="53" spans="1:3">
+      <c r="A53" s="2">
+        <v>45097</v>
       </c>
       <c r="B53">
+        <v>1</v>
+      </c>
+      <c r="C53">
         <v>1.399529576301575</v>
       </c>
     </row>
-    <row r="54" spans="1:2">
-      <c r="A54">
-        <v>2</v>
+    <row r="54" spans="1:3">
+      <c r="A54" s="2">
+        <v>45101</v>
       </c>
       <c r="B54">
+        <v>2</v>
+      </c>
+      <c r="C54">
         <v>1.627722263336182</v>
       </c>
     </row>
-    <row r="55" spans="1:2">
-      <c r="A55">
-        <v>1</v>
+    <row r="55" spans="1:3">
+      <c r="A55" s="2">
+        <v>45109</v>
       </c>
       <c r="B55">
+        <v>1</v>
+      </c>
+      <c r="C55">
         <v>1.071828722953796</v>
       </c>
     </row>
-    <row r="56" spans="1:2">
-      <c r="A56">
-        <v>1</v>
+    <row r="56" spans="1:3">
+      <c r="A56" s="2">
+        <v>45112</v>
       </c>
       <c r="B56">
+        <v>1</v>
+      </c>
+      <c r="C56">
         <v>1.956821799278259</v>
       </c>
     </row>
-    <row r="57" spans="1:2">
-      <c r="A57">
-        <v>2</v>
+    <row r="57" spans="1:3">
+      <c r="A57" s="2">
+        <v>45118</v>
       </c>
       <c r="B57">
+        <v>2</v>
+      </c>
+      <c r="C57">
         <v>1.824678421020508</v>
       </c>
     </row>
-    <row r="58" spans="1:2">
-      <c r="A58">
-        <v>2</v>
+    <row r="58" spans="1:3">
+      <c r="A58" s="2">
+        <v>45121</v>
       </c>
       <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="C58">
         <v>1.227982878684998</v>
       </c>
     </row>
-    <row r="59" spans="1:2">
-      <c r="A59">
-        <v>1</v>
+    <row r="59" spans="1:3">
+      <c r="A59" s="2">
+        <v>45122</v>
       </c>
       <c r="B59">
+        <v>1</v>
+      </c>
+      <c r="C59">
         <v>1.1195148229599</v>
       </c>
     </row>
-    <row r="60" spans="1:2">
-      <c r="A60">
-        <v>2</v>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2">
+        <v>45126</v>
       </c>
       <c r="B60">
+        <v>2</v>
+      </c>
+      <c r="C60">
         <v>1.29167115688324</v>
       </c>
     </row>
-    <row r="61" spans="1:2">
-      <c r="A61">
-        <v>1</v>
+    <row r="61" spans="1:3">
+      <c r="A61" s="2">
+        <v>45128</v>
       </c>
       <c r="B61">
+        <v>1</v>
+      </c>
+      <c r="C61">
         <v>1.013741970062256</v>
       </c>
     </row>
-    <row r="62" spans="1:2">
-      <c r="A62">
-        <v>1</v>
+    <row r="62" spans="1:3">
+      <c r="A62" s="2">
+        <v>45133</v>
       </c>
       <c r="B62">
+        <v>1</v>
+      </c>
+      <c r="C62">
         <v>1.341516494750977</v>
       </c>
     </row>
-    <row r="63" spans="1:2">
-      <c r="A63">
-        <v>1</v>
+    <row r="63" spans="1:3">
+      <c r="A63" s="2">
+        <v>45142</v>
       </c>
       <c r="B63">
+        <v>1</v>
+      </c>
+      <c r="C63">
         <v>1.3951495885849</v>
       </c>
     </row>
-    <row r="64" spans="1:2">
-      <c r="A64">
-        <v>2</v>
+    <row r="64" spans="1:3">
+      <c r="A64" s="2">
+        <v>45144</v>
       </c>
       <c r="B64">
+        <v>2</v>
+      </c>
+      <c r="C64">
         <v>1.142633199691772</v>
       </c>
     </row>
-    <row r="65" spans="1:2">
-      <c r="A65">
-        <v>1</v>
+    <row r="65" spans="1:3">
+      <c r="A65" s="2">
+        <v>45150</v>
       </c>
       <c r="B65">
+        <v>1</v>
+      </c>
+      <c r="C65">
         <v>1.192735314369202</v>
       </c>
     </row>
-    <row r="66" spans="1:2">
-      <c r="A66">
-        <v>1</v>
+    <row r="66" spans="1:3">
+      <c r="A66" s="2">
+        <v>45154</v>
       </c>
       <c r="B66">
+        <v>1</v>
+      </c>
+      <c r="C66">
         <v>1.287604689598083</v>
       </c>
     </row>
-    <row r="67" spans="1:2">
-      <c r="A67">
-        <v>1</v>
+    <row r="67" spans="1:3">
+      <c r="A67" s="2">
+        <v>45155</v>
       </c>
       <c r="B67">
+        <v>1</v>
+      </c>
+      <c r="C67">
         <v>1.12653636932373</v>
       </c>
     </row>
-    <row r="68" spans="1:2">
-      <c r="A68">
-        <v>1</v>
+    <row r="68" spans="1:3">
+      <c r="A68" s="2">
+        <v>45163</v>
       </c>
       <c r="B68">
+        <v>1</v>
+      </c>
+      <c r="C68">
         <v>1.076335191726685</v>
       </c>
     </row>
-    <row r="69" spans="1:2">
-      <c r="A69">
-        <v>1</v>
+    <row r="69" spans="1:3">
+      <c r="A69" s="2">
+        <v>45167</v>
       </c>
       <c r="B69">
+        <v>1</v>
+      </c>
+      <c r="C69">
         <v>1.124870896339417</v>
       </c>
     </row>
-    <row r="70" spans="1:2">
-      <c r="A70">
-        <v>1</v>
+    <row r="70" spans="1:3">
+      <c r="A70" s="2">
+        <v>45172</v>
       </c>
       <c r="B70">
+        <v>1</v>
+      </c>
+      <c r="C70">
         <v>1.239858508110046</v>
       </c>
     </row>
-    <row r="71" spans="1:2">
-      <c r="A71">
-        <v>1</v>
+    <row r="71" spans="1:3">
+      <c r="A71" s="2">
+        <v>45174</v>
       </c>
       <c r="B71">
+        <v>1</v>
+      </c>
+      <c r="C71">
         <v>1.118312001228333</v>
       </c>
     </row>
-    <row r="72" spans="1:2">
-      <c r="A72">
-        <v>1</v>
+    <row r="72" spans="1:3">
+      <c r="A72" s="2">
+        <v>45177</v>
       </c>
       <c r="B72">
+        <v>1</v>
+      </c>
+      <c r="C72">
         <v>1.535798311233521</v>
       </c>
     </row>
-    <row r="73" spans="1:2">
-      <c r="A73">
-        <v>2</v>
+    <row r="73" spans="1:3">
+      <c r="A73" s="2">
+        <v>45178</v>
       </c>
       <c r="B73">
+        <v>2</v>
+      </c>
+      <c r="C73">
         <v>1.257732152938843</v>
       </c>
     </row>
-    <row r="74" spans="1:2">
-      <c r="A74">
-        <v>1</v>
+    <row r="74" spans="1:3">
+      <c r="A74" s="2">
+        <v>45179</v>
       </c>
       <c r="B74">
+        <v>1</v>
+      </c>
+      <c r="C74">
         <v>0.9661509394645691</v>
       </c>
     </row>
-    <row r="75" spans="1:2">
-      <c r="A75">
-        <v>2</v>
+    <row r="75" spans="1:3">
+      <c r="A75" s="2">
+        <v>45180</v>
       </c>
       <c r="B75">
+        <v>2</v>
+      </c>
+      <c r="C75">
         <v>1.845313906669617</v>
       </c>
     </row>
-    <row r="76" spans="1:2">
-      <c r="A76">
-        <v>1</v>
+    <row r="76" spans="1:3">
+      <c r="A76" s="2">
+        <v>45181</v>
       </c>
       <c r="B76">
+        <v>1</v>
+      </c>
+      <c r="C76">
         <v>0.9786983728408813</v>
       </c>
     </row>
-    <row r="77" spans="1:2">
-      <c r="A77">
-        <v>2</v>
+    <row r="77" spans="1:3">
+      <c r="A77" s="2">
+        <v>45183</v>
       </c>
       <c r="B77">
+        <v>2</v>
+      </c>
+      <c r="C77">
         <v>1.111046671867371</v>
       </c>
     </row>
-    <row r="78" spans="1:2">
-      <c r="A78">
-        <v>1</v>
+    <row r="78" spans="1:3">
+      <c r="A78" s="2">
+        <v>45184</v>
       </c>
       <c r="B78">
+        <v>1</v>
+      </c>
+      <c r="C78">
         <v>0.9952656030654907</v>
       </c>
     </row>
-    <row r="79" spans="1:2">
-      <c r="A79">
-        <v>1</v>
+    <row r="79" spans="1:3">
+      <c r="A79" s="2">
+        <v>45191</v>
       </c>
       <c r="B79">
+        <v>1</v>
+      </c>
+      <c r="C79">
         <v>1.298307657241821</v>
       </c>
     </row>
-    <row r="80" spans="1:2">
-      <c r="A80">
-        <v>1</v>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2">
+        <v>45192</v>
       </c>
       <c r="B80">
+        <v>1</v>
+      </c>
+      <c r="C80">
         <v>1.168236255645752</v>
       </c>
     </row>
-    <row r="81" spans="1:2">
-      <c r="A81">
-        <v>1</v>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2">
+        <v>45193</v>
       </c>
       <c r="B81">
+        <v>1</v>
+      </c>
+      <c r="C81">
         <v>0.9861348271369934</v>
       </c>
     </row>
-    <row r="82" spans="1:2">
-      <c r="A82">
-        <v>1</v>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2">
+        <v>45196</v>
       </c>
       <c r="B82">
+        <v>1</v>
+      </c>
+      <c r="C82">
         <v>1.14533531665802</v>
       </c>
     </row>
-    <row r="83" spans="1:2">
-      <c r="A83">
-        <v>1</v>
+    <row r="83" spans="1:3">
+      <c r="A83" s="2">
+        <v>45197</v>
       </c>
       <c r="B83">
+        <v>1</v>
+      </c>
+      <c r="C83">
         <v>1.230629801750183</v>
       </c>
     </row>
-    <row r="84" spans="1:2">
-      <c r="A84">
-        <v>1</v>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2">
+        <v>45200</v>
       </c>
       <c r="B84">
+        <v>1</v>
+      </c>
+      <c r="C84">
         <v>1.267285346984863</v>
       </c>
     </row>
-    <row r="85" spans="1:2">
-      <c r="A85">
-        <v>2</v>
+    <row r="85" spans="1:3">
+      <c r="A85" s="2">
+        <v>45203</v>
       </c>
       <c r="B85">
+        <v>2</v>
+      </c>
+      <c r="C85">
         <v>1.176405668258667</v>
       </c>
     </row>
-    <row r="86" spans="1:2">
-      <c r="A86">
-        <v>1</v>
+    <row r="86" spans="1:3">
+      <c r="A86" s="2">
+        <v>45205</v>
       </c>
       <c r="B86">
+        <v>1</v>
+      </c>
+      <c r="C86">
         <v>1.269060850143433</v>
       </c>
     </row>
-    <row r="87" spans="1:2">
-      <c r="A87">
-        <v>1</v>
+    <row r="87" spans="1:3">
+      <c r="A87" s="2">
+        <v>45212</v>
       </c>
       <c r="B87">
+        <v>1</v>
+      </c>
+      <c r="C87">
         <v>1.306085824966431</v>
       </c>
     </row>
-    <row r="88" spans="1:2">
-      <c r="A88">
-        <v>1</v>
+    <row r="88" spans="1:3">
+      <c r="A88" s="2">
+        <v>45216</v>
       </c>
       <c r="B88">
+        <v>1</v>
+      </c>
+      <c r="C88">
         <v>1.14392077922821</v>
       </c>
     </row>
-    <row r="89" spans="1:2">
-      <c r="A89">
-        <v>1</v>
+    <row r="89" spans="1:3">
+      <c r="A89" s="2">
+        <v>45217</v>
       </c>
       <c r="B89">
+        <v>1</v>
+      </c>
+      <c r="C89">
         <v>1.08217191696167</v>
       </c>
     </row>
-    <row r="90" spans="1:2">
-      <c r="A90">
-        <v>2</v>
+    <row r="90" spans="1:3">
+      <c r="A90" s="2">
+        <v>45221</v>
       </c>
       <c r="B90">
+        <v>2</v>
+      </c>
+      <c r="C90">
         <v>1.076129913330078</v>
       </c>
     </row>
-    <row r="91" spans="1:2">
-      <c r="A91">
-        <v>1</v>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2">
+        <v>45224</v>
       </c>
       <c r="B91">
+        <v>1</v>
+      </c>
+      <c r="C91">
         <v>1.110628128051758</v>
       </c>
     </row>
-    <row r="92" spans="1:2">
-      <c r="A92">
-        <v>1</v>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2">
+        <v>45227</v>
       </c>
       <c r="B92">
+        <v>1</v>
+      </c>
+      <c r="C92">
         <v>1.142472863197327</v>
       </c>
     </row>
-    <row r="93" spans="1:2">
-      <c r="A93">
-        <v>1</v>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2">
+        <v>45234</v>
       </c>
       <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="C93">
         <v>1.48870313167572</v>
       </c>
     </row>
-    <row r="94" spans="1:2">
-      <c r="A94">
-        <v>1</v>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2">
+        <v>45235</v>
       </c>
       <c r="B94">
+        <v>1</v>
+      </c>
+      <c r="C94">
         <v>1.356041073799133</v>
       </c>
     </row>
-    <row r="95" spans="1:2">
-      <c r="A95">
-        <v>2</v>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2">
+        <v>45239</v>
       </c>
       <c r="B95">
+        <v>2</v>
+      </c>
+      <c r="C95">
         <v>1.016880393028259</v>
       </c>
     </row>
-    <row r="96" spans="1:2">
-      <c r="A96">
-        <v>1</v>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2">
+        <v>45241</v>
       </c>
       <c r="B96">
+        <v>1</v>
+      </c>
+      <c r="C96">
         <v>0.9305064082145691</v>
       </c>
     </row>
-    <row r="97" spans="1:2">
-      <c r="A97">
-        <v>1</v>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2">
+        <v>45242</v>
       </c>
       <c r="B97">
+        <v>1</v>
+      </c>
+      <c r="C97">
         <v>1.027922034263611</v>
       </c>
     </row>
-    <row r="98" spans="1:2">
-      <c r="A98">
-        <v>1</v>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2">
+        <v>45243</v>
       </c>
       <c r="B98">
+        <v>1</v>
+      </c>
+      <c r="C98">
         <v>1.142704963684082</v>
       </c>
     </row>
-    <row r="99" spans="1:2">
-      <c r="A99">
-        <v>1</v>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2">
+        <v>45251</v>
       </c>
       <c r="B99">
+        <v>1</v>
+      </c>
+      <c r="C99">
         <v>1.10171902179718</v>
       </c>
     </row>
-    <row r="100" spans="1:2">
-      <c r="A100">
-        <v>1</v>
+    <row r="100" spans="1:3">
+      <c r="A100" s="2">
+        <v>45254</v>
       </c>
       <c r="B100">
+        <v>1</v>
+      </c>
+      <c r="C100">
         <v>0.9066388607025146</v>
       </c>
     </row>
-    <row r="101" spans="1:2">
-      <c r="A101">
-        <v>1</v>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2">
+        <v>45259</v>
       </c>
       <c r="B101">
+        <v>1</v>
+      </c>
+      <c r="C101">
         <v>1.163833141326904</v>
       </c>
     </row>
-    <row r="102" spans="1:2">
-      <c r="A102">
-        <v>1</v>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2">
+        <v>45263</v>
       </c>
       <c r="B102">
+        <v>1</v>
+      </c>
+      <c r="C102">
         <v>0.9862868189811707</v>
       </c>
     </row>
-    <row r="103" spans="1:2">
-      <c r="A103">
-        <v>1</v>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2">
+        <v>45265</v>
       </c>
       <c r="B103">
+        <v>1</v>
+      </c>
+      <c r="C103">
         <v>1.013618469238281</v>
       </c>
     </row>
-    <row r="104" spans="1:2">
-      <c r="A104">
-        <v>1</v>
+    <row r="104" spans="1:3">
+      <c r="A104" s="2">
+        <v>45270</v>
       </c>
       <c r="B104">
+        <v>1</v>
+      </c>
+      <c r="C104">
         <v>1.120574474334717</v>
       </c>
     </row>
-    <row r="105" spans="1:2">
-      <c r="A105">
-        <v>1</v>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2">
+        <v>45276</v>
       </c>
       <c r="B105">
+        <v>1</v>
+      </c>
+      <c r="C105">
         <v>1.208516955375671</v>
       </c>
     </row>
-    <row r="106" spans="1:2">
-      <c r="A106">
-        <v>2</v>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2">
+        <v>45282</v>
       </c>
       <c r="B106">
+        <v>2</v>
+      </c>
+      <c r="C106">
         <v>1.677519202232361</v>
       </c>
     </row>
-    <row r="107" spans="1:2">
-      <c r="A107">
-        <v>1</v>
+    <row r="107" spans="1:3">
+      <c r="A107" s="2">
+        <v>45283</v>
       </c>
       <c r="B107">
+        <v>1</v>
+      </c>
+      <c r="C107">
         <v>1.069978952407837</v>
       </c>
     </row>
-    <row r="108" spans="1:2">
-      <c r="A108">
-        <v>2</v>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2">
+        <v>45286</v>
       </c>
       <c r="B108">
+        <v>2</v>
+      </c>
+      <c r="C108">
         <v>1.649675607681274</v>
       </c>
     </row>
-    <row r="109" spans="1:2">
-      <c r="A109">
-        <v>2</v>
+    <row r="109" spans="1:3">
+      <c r="A109" s="2">
+        <v>45287</v>
       </c>
       <c r="B109">
+        <v>2</v>
+      </c>
+      <c r="C109">
         <v>1.636694073677063</v>
       </c>
     </row>
-    <row r="110" spans="1:2">
-      <c r="A110">
-        <v>2</v>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2">
+        <v>45288</v>
       </c>
       <c r="B110">
+        <v>2</v>
+      </c>
+      <c r="C110">
         <v>1.674594521522522</v>
       </c>
     </row>
-    <row r="111" spans="1:2">
-      <c r="A111">
-        <v>2</v>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2">
+        <v>45293</v>
       </c>
       <c r="B111">
+        <v>2</v>
+      </c>
+      <c r="C111">
         <v>2.072911977767944</v>
       </c>
     </row>
-    <row r="112" spans="1:2">
-      <c r="A112">
-        <v>2</v>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2">
+        <v>45299</v>
       </c>
       <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="C112">
         <v>1.930437207221985</v>
       </c>
     </row>
-    <row r="113" spans="1:2">
-      <c r="A113">
-        <v>2</v>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2">
+        <v>45301</v>
       </c>
       <c r="B113">
+        <v>2</v>
+      </c>
+      <c r="C113">
         <v>2.011423349380493</v>
       </c>
     </row>
-    <row r="114" spans="1:2">
-      <c r="A114">
-        <v>1</v>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2">
+        <v>45303</v>
       </c>
       <c r="B114">
+        <v>1</v>
+      </c>
+      <c r="C114">
         <v>1.054304480552673</v>
       </c>
     </row>
-    <row r="115" spans="1:2">
-      <c r="A115">
-        <v>2</v>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2">
+        <v>45304</v>
       </c>
       <c r="B115">
+        <v>2</v>
+      </c>
+      <c r="C115">
         <v>1.83477783203125</v>
       </c>
     </row>
-    <row r="116" spans="1:2">
-      <c r="A116">
-        <v>1</v>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2">
+        <v>45306</v>
       </c>
       <c r="B116">
+        <v>1</v>
+      </c>
+      <c r="C116">
         <v>2.020355463027954</v>
       </c>
     </row>
-    <row r="117" spans="1:2">
-      <c r="A117">
-        <v>1</v>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2">
+        <v>45309</v>
       </c>
       <c r="B117">
+        <v>1</v>
+      </c>
+      <c r="C117">
         <v>1.364644885063171</v>
       </c>
     </row>
-    <row r="118" spans="1:2">
-      <c r="A118">
-        <v>2</v>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2">
+        <v>45311</v>
       </c>
       <c r="B118">
+        <v>2</v>
+      </c>
+      <c r="C118">
         <v>1.032730937004089</v>
       </c>
     </row>
-    <row r="119" spans="1:2">
-      <c r="A119">
-        <v>2</v>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2">
+        <v>45312</v>
       </c>
       <c r="B119">
+        <v>2</v>
+      </c>
+      <c r="C119">
         <v>1.062332630157471</v>
       </c>
     </row>
-    <row r="120" spans="1:2">
-      <c r="A120">
-        <v>1</v>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2">
+        <v>45316</v>
       </c>
       <c r="B120">
+        <v>1</v>
+      </c>
+      <c r="C120">
         <v>1.045046091079712</v>
       </c>
     </row>
-    <row r="121" spans="1:2">
-      <c r="A121">
-        <v>1</v>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2">
+        <v>45320</v>
       </c>
       <c r="B121">
+        <v>1</v>
+      </c>
+      <c r="C121">
         <v>1.330704569816589</v>
       </c>
     </row>
-    <row r="122" spans="1:2">
-      <c r="A122">
-        <v>1</v>
+    <row r="122" spans="1:3">
+      <c r="A122" s="2">
+        <v>45322</v>
       </c>
       <c r="B122">
+        <v>1</v>
+      </c>
+      <c r="C122">
         <v>1.277273058891296</v>
       </c>
     </row>
-    <row r="123" spans="1:2">
-      <c r="A123">
-        <v>2</v>
+    <row r="123" spans="1:3">
+      <c r="A123" s="2">
+        <v>45324</v>
       </c>
       <c r="B123">
+        <v>2</v>
+      </c>
+      <c r="C123">
         <v>1.036403059959412</v>
       </c>
     </row>
-    <row r="124" spans="1:2">
-      <c r="A124">
-        <v>1</v>
+    <row r="124" spans="1:3">
+      <c r="A124" s="2">
+        <v>45330</v>
       </c>
       <c r="B124">
+        <v>1</v>
+      </c>
+      <c r="C124">
         <v>1.08901035785675</v>
       </c>
     </row>
-    <row r="125" spans="1:2">
-      <c r="A125">
-        <v>1</v>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2">
+        <v>45331</v>
       </c>
       <c r="B125">
+        <v>1</v>
+      </c>
+      <c r="C125">
         <v>0.8744220733642578</v>
       </c>
     </row>
-    <row r="126" spans="1:2">
-      <c r="A126">
-        <v>2</v>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2">
+        <v>45338</v>
       </c>
       <c r="B126">
+        <v>2</v>
+      </c>
+      <c r="C126">
         <v>1.81201958656311</v>
       </c>
     </row>
-    <row r="127" spans="1:2">
-      <c r="A127">
-        <v>1</v>
+    <row r="127" spans="1:3">
+      <c r="A127" s="2">
+        <v>45340</v>
       </c>
       <c r="B127">
+        <v>1</v>
+      </c>
+      <c r="C127">
         <v>1.039394021034241</v>
       </c>
     </row>
-    <row r="128" spans="1:2">
-      <c r="A128">
-        <v>1</v>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2">
+        <v>45341</v>
       </c>
       <c r="B128">
+        <v>1</v>
+      </c>
+      <c r="C128">
         <v>1.392774343490601</v>
       </c>
     </row>
-    <row r="129" spans="1:2">
-      <c r="A129">
-        <v>2</v>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2">
+        <v>45342</v>
       </c>
       <c r="B129">
+        <v>2</v>
+      </c>
+      <c r="C129">
         <v>1.36920428276062</v>
       </c>
     </row>
-    <row r="130" spans="1:2">
-      <c r="A130">
-        <v>1</v>
+    <row r="130" spans="1:3">
+      <c r="A130" s="2">
+        <v>45346</v>
       </c>
       <c r="B130">
+        <v>1</v>
+      </c>
+      <c r="C130">
         <v>0.9626047015190125</v>
       </c>
     </row>
-    <row r="131" spans="1:2">
-      <c r="A131">
-        <v>2</v>
+    <row r="131" spans="1:3">
+      <c r="A131" s="2">
+        <v>45347</v>
       </c>
       <c r="B131">
+        <v>2</v>
+      </c>
+      <c r="C131">
         <v>1.544056057929993</v>
       </c>
     </row>
-    <row r="132" spans="1:2">
-      <c r="A132">
-        <v>1</v>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2">
+        <v>45348</v>
       </c>
       <c r="B132">
+        <v>1</v>
+      </c>
+      <c r="C132">
         <v>1.758057355880737</v>
       </c>
     </row>
-    <row r="133" spans="1:2">
-      <c r="A133">
-        <v>1</v>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2">
+        <v>45349</v>
       </c>
       <c r="B133">
+        <v>1</v>
+      </c>
+      <c r="C133">
         <v>1.741223812103271</v>
       </c>
     </row>
